--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1754.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1754.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7532316584715401</v>
+        <v>0.3833423852920532</v>
       </c>
       <c r="B1">
-        <v>1.386143159263124</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.2578045129776</v>
       </c>
       <c r="E1">
-        <v>1.467567445434405</v>
+        <v>0.8234860897064209</v>
       </c>
     </row>
   </sheetData>
